--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T20:06:08+00:00</t>
+    <t>2022-01-10T15:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T15:11:55+00:00</t>
+    <t>2022-01-25T14:39:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T14:39:04+00:00</t>
+    <t>2022-01-31T16:29:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T16:29:45+00:00</t>
+    <t>2022-01-31T20:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T20:10:04+00:00</t>
+    <t>2022-02-11T00:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T00:28:19+00:00</t>
+    <t>2022-02-11T01:45:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T01:45:45+00:00</t>
+    <t>2022-02-13T22:11:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-13T22:11:31+00:00</t>
+    <t>2022-03-01T19:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T19:29:42+00:00</t>
+    <t>2022-03-04T23:14:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T23:14:40+00:00</t>
+    <t>2022-03-05T00:52:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T00:52:55+00:00</t>
+    <t>2022-03-05T01:03:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:03:34+00:00</t>
+    <t>2022-03-05T01:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:09:46+00:00</t>
+    <t>2022-03-18T16:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T16:50:55+00:00</t>
+    <t>2022-03-19T18:10:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:10:29+00:00</t>
+    <t>2022-03-19T18:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:27:00+00:00</t>
+    <t>2022-03-20T18:26:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T18:26:18+00:00</t>
+    <t>2022-03-20T19:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T19:00:26+00:00</t>
+    <t>2022-03-21T17:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T17:45:13+00:00</t>
+    <t>2022-03-21T18:09:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T18:09:33+00:00</t>
+    <t>2022-03-22T20:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:54:15+00:00</t>
+    <t>2022-03-23T00:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:01:05+00:00</t>
+    <t>2022-03-23T00:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:19:03+00:00</t>
+    <t>2022-03-23T00:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:33:43+00:00</t>
+    <t>2022-03-23T18:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T18:40:06+00:00</t>
+    <t>2022-03-23T19:11:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:11:09+00:00</t>
+    <t>2022-03-23T19:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:27:55+00:00</t>
+    <t>2022-03-23T20:20:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:20:45+00:00</t>
+    <t>2022-03-23T20:39:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:39:07+00:00</t>
+    <t>2022-03-23T21:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T21:03:35+00:00</t>
+    <t>2022-03-24T19:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:03:35+00:00</t>
+    <t>2022-03-24T19:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:25:05+00:00</t>
+    <t>2022-03-24T20:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:10:48+00:00</t>
+    <t>2022-03-24T20:26:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:26:37+00:00</t>
+    <t>2022-03-26T21:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:07:52+00:00</t>
+    <t>2022-03-26T21:44:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:44:34+00:00</t>
+    <t>2022-03-26T21:58:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:58:42+00:00</t>
+    <t>2022-03-26T22:00:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T22:00:49+00:00</t>
+    <t>2022-03-28T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T14:06:51+00:00</t>
+    <t>2022-03-28T17:18:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T17:18:58+00:00</t>
+    <t>2022-03-28T18:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T18:48:26+00:00</t>
+    <t>2022-03-28T20:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T20:08:43+00:00</t>
+    <t>2022-03-28T23:34:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:34:19+00:00</t>
+    <t>2022-03-28T23:45:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:45:02+00:00</t>
+    <t>2022-03-28T23:47:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:47:33+00:00</t>
+    <t>2022-03-29T00:49:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T00:49:23+00:00</t>
+    <t>2022-03-29T01:03:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:03:03+00:00</t>
+    <t>2022-03-29T01:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:33:50+00:00</t>
+    <t>2022-03-29T22:51:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T22:51:35+00:00</t>
+    <t>2022-03-30T04:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T04:10:02+00:00</t>
+    <t>2022-03-30T05:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:07:06+00:00</t>
+    <t>2022-03-30T05:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:24:10+00:00</t>
+    <t>2022-03-30T15:00:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T15:00:01+00:00</t>
+    <t>2022-03-30T20:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T20:32:02+00:00</t>
+    <t>2022-03-31T03:49:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T03:49:14+00:00</t>
+    <t>2022-03-31T04:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:31:26+00:00</t>
+    <t>2022-03-31T04:46:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:46:55+00:00</t>
+    <t>2022-03-31T06:22:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:22:16+00:00</t>
+    <t>2022-03-31T06:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:42:10+00:00</t>
+    <t>2022-04-26T17:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T17:07:52+00:00</t>
+    <t>2022-05-27T14:27:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T14:27:29+00:00</t>
+    <t>2022-06-01T13:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="484">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T13:01:08+00:00</t>
+    <t>2022-09-27T20:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -290,213 +290,217 @@
     <t>1</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Patient.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Patient.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Patient.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Patient.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Patient.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Patient.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Patient.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Patient.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>An identifier for this patient</t>
+  </si>
+  <si>
+    <t>An identifier for this patient.</t>
+  </si>
+  <si>
+    <t>Patients are almost always assigned specific numerical identifiers.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>Patient.identifier.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Patient.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Patient.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Patient.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Patient.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Patient.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Patient.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Patient.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Patient.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>An identifier for this patient</t>
-  </si>
-  <si>
-    <t>An identifier for this patient.</t>
-  </si>
-  <si>
-    <t>Patients are almost always assigned specific numerical identifiers.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>Patient.identifier.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1849,45 +1853,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.47265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.6640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.66796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="99.16796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="57.93359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="156.82421875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="40.80859375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="156.828125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="40.8125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="56.171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="56.17578125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3176,13 +3180,13 @@
         <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3233,7 +3237,7 @@
         <v>81</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>78</v>
@@ -3248,7 +3252,7 @@
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>81</v>
@@ -3265,7 +3269,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3294,7 +3298,7 @@
         <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
         <v>136</v>
@@ -3335,19 +3339,19 @@
         <v>81</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
@@ -3362,7 +3366,7 @@
         <v>138</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>81</v>
@@ -3379,7 +3383,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3405,16 +3409,16 @@
         <v>107</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>81</v>
@@ -3439,13 +3443,13 @@
         <v>81</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>81</v>
@@ -3463,7 +3467,7 @@
         <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
@@ -3478,7 +3482,7 @@
         <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>81</v>
@@ -3495,7 +3499,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3518,19 +3522,19 @@
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>81</v>
@@ -3555,13 +3559,13 @@
         <v>81</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>81</v>
@@ -3579,7 +3583,7 @@
         <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -3594,7 +3598,7 @@
         <v>99</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>81</v>
@@ -3603,7 +3607,7 @@
         <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>81</v>
@@ -3611,7 +3615,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3637,16 +3641,16 @@
         <v>101</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>81</v>
@@ -3659,7 +3663,7 @@
         <v>81</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>81</v>
@@ -3695,7 +3699,7 @@
         <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3710,7 +3714,7 @@
         <v>99</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>81</v>
@@ -3719,7 +3723,7 @@
         <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
@@ -3727,7 +3731,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3750,16 +3754,16 @@
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3773,7 +3777,7 @@
         <v>81</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>81</v>
@@ -3809,7 +3813,7 @@
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -3824,7 +3828,7 @@
         <v>99</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>81</v>
@@ -3833,7 +3837,7 @@
         <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
@@ -3841,7 +3845,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3864,13 +3868,13 @@
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3921,7 +3925,7 @@
         <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -3936,7 +3940,7 @@
         <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>81</v>
@@ -3945,7 +3949,7 @@
         <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -3953,7 +3957,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3976,16 +3980,16 @@
         <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4035,7 +4039,7 @@
         <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4050,7 +4054,7 @@
         <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>81</v>
@@ -4059,7 +4063,7 @@
         <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -4067,7 +4071,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4090,70 +4094,70 @@
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P20" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Q20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P20" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="Q20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4168,13 +4172,13 @@
         <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>81</v>
@@ -4185,7 +4189,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4208,19 +4212,19 @@
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>81</v>
@@ -4257,17 +4261,17 @@
         <v>81</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4282,16 +4286,16 @@
         <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
@@ -4299,7 +4303,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4322,13 +4326,13 @@
         <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4379,7 +4383,7 @@
         <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4394,7 +4398,7 @@
         <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>81</v>
@@ -4411,7 +4415,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4440,7 +4444,7 @@
         <v>134</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>136</v>
@@ -4481,19 +4485,19 @@
         <v>81</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4508,7 +4512,7 @@
         <v>138</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>81</v>
@@ -4525,7 +4529,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4551,16 +4555,16 @@
         <v>107</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>81</v>
@@ -4585,13 +4589,13 @@
         <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>81</v>
@@ -4609,7 +4613,7 @@
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4624,7 +4628,7 @@
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>81</v>
@@ -4633,7 +4637,7 @@
         <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -4641,7 +4645,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4664,19 +4668,19 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>81</v>
@@ -4725,7 +4729,7 @@
         <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4740,7 +4744,7 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>81</v>
@@ -4749,7 +4753,7 @@
         <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -4757,11 +4761,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4780,16 +4784,16 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4839,7 +4843,7 @@
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4854,7 +4858,7 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>81</v>
@@ -4863,7 +4867,7 @@
         <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
@@ -4871,11 +4875,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4894,16 +4898,16 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4953,7 +4957,7 @@
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4968,7 +4972,7 @@
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>81</v>
@@ -4977,7 +4981,7 @@
         <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -4985,7 +4989,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5008,13 +5012,13 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5065,7 +5069,7 @@
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5080,7 +5084,7 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>81</v>
@@ -5089,7 +5093,7 @@
         <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
@@ -5097,7 +5101,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5120,13 +5124,13 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5177,7 +5181,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5192,7 +5196,7 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>81</v>
@@ -5201,7 +5205,7 @@
         <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
@@ -5209,7 +5213,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5232,17 +5236,17 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>81</v>
@@ -5291,7 +5295,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5306,7 +5310,7 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>81</v>
@@ -5315,7 +5319,7 @@
         <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
@@ -5323,10 +5327,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>81</v>
@@ -5350,19 +5354,19 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>81</v>
@@ -5411,7 +5415,7 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5426,16 +5430,16 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -5443,7 +5447,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5466,13 +5470,13 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5523,7 +5527,7 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5538,7 +5542,7 @@
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>81</v>
@@ -5555,7 +5559,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5584,7 +5588,7 @@
         <v>134</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>136</v>
@@ -5625,19 +5629,19 @@
         <v>81</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5652,7 +5656,7 @@
         <v>138</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>81</v>
@@ -5669,7 +5673,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5695,16 +5699,16 @@
         <v>107</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>81</v>
@@ -5714,7 +5718,7 @@
         <v>81</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>81</v>
@@ -5729,13 +5733,13 @@
         <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>81</v>
@@ -5753,7 +5757,7 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5768,7 +5772,7 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>81</v>
@@ -5777,7 +5781,7 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5785,7 +5789,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5808,19 +5812,19 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>81</v>
@@ -5869,7 +5873,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5884,7 +5888,7 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>81</v>
@@ -5893,7 +5897,7 @@
         <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -5901,11 +5905,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5924,16 +5928,16 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5983,7 +5987,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5998,7 +6002,7 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>81</v>
@@ -6007,7 +6011,7 @@
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6015,11 +6019,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6038,16 +6042,16 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6097,7 +6101,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6112,7 +6116,7 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>81</v>
@@ -6121,7 +6125,7 @@
         <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6129,7 +6133,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6152,13 +6156,13 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6209,7 +6213,7 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6224,7 +6228,7 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>81</v>
@@ -6233,7 +6237,7 @@
         <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6241,7 +6245,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6264,13 +6268,13 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6321,7 +6325,7 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6336,7 +6340,7 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>81</v>
@@ -6345,7 +6349,7 @@
         <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6353,7 +6357,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6376,17 +6380,17 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>81</v>
@@ -6435,7 +6439,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6450,7 +6454,7 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>81</v>
@@ -6459,7 +6463,7 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6467,7 +6471,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6490,19 +6494,19 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>81</v>
@@ -6551,7 +6555,7 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6566,16 +6570,16 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6583,14 +6587,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E42" t="s" s="2">
         <v>78</v>
@@ -6611,16 +6615,16 @@
         <v>107</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>81</v>
@@ -6645,13 +6649,13 @@
         <v>81</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>81</v>
@@ -6669,7 +6673,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6684,16 +6688,16 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6701,14 +6705,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E43" t="s" s="2">
         <v>78</v>
@@ -6726,19 +6730,19 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>81</v>
@@ -6787,7 +6791,7 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6802,24 +6806,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6842,19 +6846,19 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
@@ -6903,7 +6907,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6918,16 +6922,16 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -6935,7 +6939,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6958,19 +6962,19 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>81</v>
@@ -7019,7 +7023,7 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7031,19 +7035,19 @@
         <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7051,7 +7055,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7074,17 +7078,17 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>81</v>
@@ -7109,13 +7113,13 @@
         <v>81</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>81</v>
@@ -7133,7 +7137,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7148,16 +7152,16 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7165,7 +7169,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7188,19 +7192,19 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>81</v>
@@ -7249,7 +7253,7 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7264,16 +7268,16 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -7281,7 +7285,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7304,19 +7308,19 @@
         <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>81</v>
@@ -7365,7 +7369,7 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7380,16 +7384,16 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -7397,7 +7401,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7420,19 +7424,19 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>81</v>
@@ -7481,7 +7485,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7493,13 +7497,13 @@
         <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>81</v>
@@ -7513,7 +7517,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7536,13 +7540,13 @@
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7593,7 +7597,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7608,7 +7612,7 @@
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>81</v>
@@ -7625,7 +7629,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7654,7 +7658,7 @@
         <v>134</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>136</v>
@@ -7707,7 +7711,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7722,7 +7726,7 @@
         <v>138</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>81</v>
@@ -7739,11 +7743,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7765,10 +7769,10 @@
         <v>133</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>136</v>
@@ -7823,7 +7827,7 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7855,7 +7859,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7878,19 +7882,19 @@
         <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>81</v>
@@ -7915,11 +7919,11 @@
         <v>81</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>81</v>
@@ -7937,7 +7941,7 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -7946,13 +7950,13 @@
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>81</v>
@@ -7961,7 +7965,7 @@
         <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -7969,7 +7973,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7992,17 +7996,17 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>81</v>
@@ -8051,7 +8055,7 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8066,16 +8070,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8083,7 +8087,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8106,19 +8110,19 @@
         <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>81</v>
@@ -8167,7 +8171,7 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8182,16 +8186,16 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
@@ -8199,7 +8203,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8222,17 +8226,17 @@
         <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>81</v>
@@ -8281,7 +8285,7 @@
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8296,16 +8300,16 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
@@ -8313,7 +8317,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8339,14 +8343,14 @@
         <v>107</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>81</v>
@@ -8371,13 +8375,13 @@
         <v>81</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>81</v>
@@ -8395,7 +8399,7 @@
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8410,16 +8414,16 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -8427,7 +8431,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8450,17 +8454,17 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>81</v>
@@ -8509,7 +8513,7 @@
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8518,22 +8522,22 @@
         <v>88</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
@@ -8541,7 +8545,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8564,13 +8568,13 @@
         <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8621,7 +8625,7 @@
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8636,10 +8640,10 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>81</v>
@@ -8653,7 +8657,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8676,19 +8680,19 @@
         <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>81</v>
@@ -8737,7 +8741,7 @@
         <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8752,10 +8756,10 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>81</v>
@@ -8769,7 +8773,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8792,13 +8796,13 @@
         <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8849,7 +8853,7 @@
         <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8864,7 +8868,7 @@
         <v>81</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>81</v>
@@ -8881,7 +8885,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8910,7 +8914,7 @@
         <v>134</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>136</v>
@@ -8963,7 +8967,7 @@
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -8978,7 +8982,7 @@
         <v>138</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>81</v>
@@ -8995,11 +8999,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9021,10 +9025,10 @@
         <v>133</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>136</v>
@@ -9079,7 +9083,7 @@
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9111,7 +9115,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9134,19 +9138,19 @@
         <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>81</v>
@@ -9171,11 +9175,11 @@
         <v>81</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>81</v>
@@ -9193,7 +9197,7 @@
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>88</v>
@@ -9208,16 +9212,16 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
@@ -9225,7 +9229,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9248,19 +9252,19 @@
         <v>81</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>81</v>
@@ -9309,7 +9313,7 @@
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9324,16 +9328,16 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>81</v>
@@ -9341,11 +9345,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9364,16 +9368,16 @@
         <v>81</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9423,7 +9427,7 @@
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9438,16 +9442,16 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
@@ -9455,7 +9459,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9478,19 +9482,19 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>81</v>
@@ -9539,7 +9543,7 @@
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9554,10 +9558,10 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>81</v>
@@ -9571,7 +9575,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9594,19 +9598,19 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>81</v>
@@ -9655,7 +9659,7 @@
         <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9670,10 +9674,10 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>81</v>
@@ -9687,7 +9691,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9710,13 +9714,13 @@
         <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9767,7 +9771,7 @@
         <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9782,7 +9786,7 @@
         <v>81</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>81</v>
@@ -9799,7 +9803,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9828,7 +9832,7 @@
         <v>134</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>136</v>
@@ -9881,7 +9885,7 @@
         <v>81</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -9896,7 +9900,7 @@
         <v>138</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>81</v>
@@ -9913,11 +9917,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9939,10 +9943,10 @@
         <v>133</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>136</v>
@@ -9997,7 +10001,7 @@
         <v>81</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10029,7 +10033,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10052,16 +10056,16 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10111,7 +10115,7 @@
         <v>81</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>88</v>
@@ -10129,13 +10133,13 @@
         <v>149</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>81</v>
@@ -10143,7 +10147,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10169,10 +10173,10 @@
         <v>107</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10199,13 +10203,13 @@
         <v>81</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>81</v>
@@ -10223,7 +10227,7 @@
         <v>81</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>88</v>
@@ -10238,10 +10242,10 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>81</v>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:02:38+00:00</t>
+    <t>2022-09-27T20:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:20:50+00:00</t>
+    <t>2022-09-27T20:30:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:30:57+00:00</t>
+    <t>2022-09-27T22:49:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T22:49:39+00:00</t>
+    <t>2022-09-27T23:00:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:00:34+00:00</t>
+    <t>2022-09-27T23:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:08:58+00:00</t>
+    <t>2022-10-27T10:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T10:56:05+00:00</t>
+    <t>2022-11-23T04:23:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T04:23:36+00:00</t>
+    <t>2022-11-23T11:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:18:03+00:00</t>
+    <t>2022-11-23T11:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:20:15+00:00</t>
+    <t>2022-11-23T15:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T15:17:18+00:00</t>
+    <t>2022-11-28T15:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T15:39:12+00:00</t>
+    <t>2022-11-28T23:56:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T23:56:31+00:00</t>
+    <t>2022-11-29T11:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:57:57+00:00</t>
+    <t>2022-11-30T13:59:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:59:42+00:00</t>
+    <t>2022-11-30T15:11:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,10 +84,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">A DDCCPatient should:
+    <t>A DDCCPatient should:
 * if the [identifier.assigner](StructureDefinition-DDCCPatient-definitions.html#Patient.identifier] is set then the value of [identifier.assigner](StructureDefinition-DDCCPatient-definitions.html#Patient.identifier.assigner) should be set to reference the [DDCC Organization](StructureDefinition-DDCCOrganization.html) resource associated to the PHA.
-* obeys who-ddcc-patient-1
-</t>
+* obeys who-ddcc-patient-1</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T15:11:20+00:00</t>
+    <t>2022-11-30T15:45:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-08T23:46:44+00:00</t>
+    <t>2023-01-09T00:16:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:19:24+00:00</t>
+    <t>2023-01-11T17:29:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
